--- a/ifqe-portal-backend5/templates/1.1.5_Template.xlsx
+++ b/ifqe-portal-backend5/templates/1.1.5_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHANDAN\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m85vi\Desktop\Templates\ifque updted files from 1-3\updated template 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C46C90-016C-44C2-806F-D847755B978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC61DD88-56EC-49CC-B0E0-5568934A82BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A1C192DF-452E-459A-BB32-BF466DD24930}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C192DF-452E-459A-BB32-BF466DD24930}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1.5 (a)" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t xml:space="preserve"> 1.1.5 (a) Percentage of Courses having focus on employability, entrepreneurship and skill
- development</t>
-  </si>
   <si>
     <t>Program Name</t>
   </si>
@@ -63,6 +59,9 @@
  Employability/Entre
  preneurship/Skill
  Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1.5 (a) Percentage of Courses having focus on employability, entrepreneurship and skill development</t>
   </si>
 </sst>
 </file>
@@ -158,29 +157,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -188,23 +187,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -213,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,12 +241,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -257,30 +250,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -300,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,46 +589,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C52B5B2-B51D-440B-8394-E7E497CB876C}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="6" width="5.77734375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -643,7 +638,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -651,182 +646,183 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
@@ -839,13 +835,12 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,61 +850,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7EAAC-9588-47DC-A4F8-612733ABB1D3}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="25.77734375" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -920,227 +916,184 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="4:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="4:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="4:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="4:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="4:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="4:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D23:F23"/>
@@ -1149,6 +1102,49 @@
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
